--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pomc-Mc1r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pomc-Mc1r.xlsx
@@ -543,10 +543,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3304176666666667</v>
+        <v>1.524170333333333</v>
       </c>
       <c r="H2">
-        <v>0.9912529999999999</v>
+        <v>4.572511</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3412459999999999</v>
+        <v>0.7917353333333333</v>
       </c>
       <c r="N2">
-        <v>1.023738</v>
+        <v>2.375206</v>
       </c>
       <c r="O2">
-        <v>0.1478396315078361</v>
+        <v>0.3370298876305008</v>
       </c>
       <c r="P2">
-        <v>0.1478396315078361</v>
+        <v>0.3370298876305008</v>
       </c>
       <c r="Q2">
-        <v>0.1127537070793333</v>
+        <v>1.206739506918445</v>
       </c>
       <c r="R2">
-        <v>1.014783363714</v>
+        <v>10.860655562266</v>
       </c>
       <c r="S2">
-        <v>0.1478396315078361</v>
+        <v>0.3370298876305008</v>
       </c>
       <c r="T2">
-        <v>0.1478396315078361</v>
+        <v>0.3370298876305008</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3304176666666667</v>
+        <v>1.524170333333333</v>
       </c>
       <c r="H3">
-        <v>0.9912529999999999</v>
+        <v>4.572511</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.4973859999999999</v>
+        <v>0.4973860000000001</v>
       </c>
       <c r="N3">
         <v>1.492158</v>
       </c>
       <c r="O3">
-        <v>0.2154849081224587</v>
+        <v>0.2117297796767745</v>
       </c>
       <c r="P3">
-        <v>0.2154849081224587</v>
+        <v>0.2117297796767745</v>
       </c>
       <c r="Q3">
-        <v>0.1643451215526666</v>
+        <v>0.7581009854153334</v>
       </c>
       <c r="R3">
-        <v>1.479106093974</v>
+        <v>6.822908868738002</v>
       </c>
       <c r="S3">
-        <v>0.2154849081224587</v>
+        <v>0.2117297796767745</v>
       </c>
       <c r="T3">
-        <v>0.2154849081224587</v>
+        <v>0.2117297796767745</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3304176666666667</v>
+        <v>1.524170333333333</v>
       </c>
       <c r="H4">
-        <v>0.9912529999999999</v>
+        <v>4.572511</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.299649</v>
+        <v>0.339559</v>
       </c>
       <c r="N4">
-        <v>0.8989469999999999</v>
+        <v>1.018677</v>
       </c>
       <c r="O4">
-        <v>0.1298183648795636</v>
+        <v>0.1445451867508653</v>
       </c>
       <c r="P4">
-        <v>0.1298183648795636</v>
+        <v>0.1445451867508653</v>
       </c>
       <c r="Q4">
-        <v>0.099009323399</v>
+        <v>0.5175457542163333</v>
       </c>
       <c r="R4">
-        <v>0.8910839105909999</v>
+        <v>4.657911787947</v>
       </c>
       <c r="S4">
-        <v>0.1298183648795636</v>
+        <v>0.1445451867508653</v>
       </c>
       <c r="T4">
-        <v>0.1298183648795636</v>
+        <v>0.1445451867508653</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3304176666666667</v>
+        <v>1.524170333333333</v>
       </c>
       <c r="H5">
-        <v>0.9912529999999999</v>
+        <v>4.572511</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.631571</v>
+        <v>0.290216</v>
       </c>
       <c r="N5">
-        <v>1.894713</v>
+        <v>0.870648</v>
       </c>
       <c r="O5">
-        <v>0.2736185154142042</v>
+        <v>0.1235406097853071</v>
       </c>
       <c r="P5">
-        <v>0.2736185154142042</v>
+        <v>0.1235406097853071</v>
       </c>
       <c r="Q5">
-        <v>0.2086822161543333</v>
+        <v>0.4423386174586666</v>
       </c>
       <c r="R5">
-        <v>1.878139945389</v>
+        <v>3.981047557128</v>
       </c>
       <c r="S5">
-        <v>0.2736185154142042</v>
+        <v>0.1235406097853071</v>
       </c>
       <c r="T5">
-        <v>0.2736185154142042</v>
+        <v>0.1235406097853071</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3304176666666667</v>
+        <v>1.524170333333333</v>
       </c>
       <c r="H6">
-        <v>0.9912529999999999</v>
+        <v>4.572511</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1086676666666667</v>
+        <v>0.116919</v>
       </c>
       <c r="N6">
-        <v>0.326003</v>
+        <v>0.350757</v>
       </c>
       <c r="O6">
-        <v>0.04707861131505237</v>
+        <v>0.04977066927904846</v>
       </c>
       <c r="P6">
-        <v>0.04707861131505237</v>
+        <v>0.04977066927904845</v>
       </c>
       <c r="Q6">
-        <v>0.03590571686211111</v>
+        <v>0.178204471203</v>
       </c>
       <c r="R6">
-        <v>0.323151451759</v>
+        <v>1.603840240827</v>
       </c>
       <c r="S6">
-        <v>0.04707861131505237</v>
+        <v>0.04977066927904846</v>
       </c>
       <c r="T6">
-        <v>0.04707861131505237</v>
+        <v>0.04977066927904845</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.3304176666666667</v>
+        <v>1.524170333333333</v>
       </c>
       <c r="H7">
-        <v>0.9912529999999999</v>
+        <v>4.572511</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4296976666666667</v>
+        <v>0.3133393333333334</v>
       </c>
       <c r="N7">
-        <v>1.289093</v>
+        <v>0.940018</v>
       </c>
       <c r="O7">
-        <v>0.1861599687608851</v>
+        <v>0.1333838668775038</v>
       </c>
       <c r="P7">
-        <v>0.1861599687608851</v>
+        <v>0.1333838668775037</v>
       </c>
       <c r="Q7">
-        <v>0.1419797003921111</v>
+        <v>0.4775825161331111</v>
       </c>
       <c r="R7">
-        <v>1.277817303529</v>
+        <v>4.298242645198001</v>
       </c>
       <c r="S7">
-        <v>0.1861599687608851</v>
+        <v>0.1333838668775038</v>
       </c>
       <c r="T7">
-        <v>0.1861599687608851</v>
+        <v>0.1333838668775037</v>
       </c>
     </row>
   </sheetData>
